--- a/data/trans_orig/CAGE-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/CAGE-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4592</v>
+        <v>4676</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001581728174221372</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.007860835931860001</v>
+        <v>0.008005075084641806</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4244</v>
+        <v>4653</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0006133212985806928</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0028170606287422</v>
+        <v>0.003088384769730694</v>
       </c>
     </row>
     <row r="5">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4385</v>
+        <v>4073</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.001509789739234262</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.007506143889172891</v>
+        <v>0.006972793270864744</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5812</v>
+        <v>4834</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0005854268884770877</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.003858042133121746</v>
+        <v>0.003208623066137324</v>
       </c>
     </row>
     <row r="6">
@@ -870,19 +870,19 @@
         <v>5674</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1931</v>
+        <v>2062</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11251</v>
+        <v>12355</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.009713087072224685</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003306135572297508</v>
+        <v>0.003530294995115501</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01926019437734589</v>
+        <v>0.02114992159514369</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9151</v>
+        <v>8223</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002851574802183629</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.00992114555322283</v>
+        <v>0.008915480077638064</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -912,19 +912,19 @@
         <v>8304</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3967</v>
+        <v>3860</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15188</v>
+        <v>16898</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005512153076172165</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002633090465027872</v>
+        <v>0.002562157189117601</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01008200209844438</v>
+        <v>0.01121680298395111</v>
       </c>
     </row>
     <row r="7">
@@ -941,19 +941,19 @@
         <v>576661</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>570647</v>
+        <v>569351</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>580533</v>
+        <v>580515</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9871953950143196</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9768997266108718</v>
+        <v>0.9746814900645461</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9938230370229679</v>
+        <v>0.9937929551094454</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>883</v>
@@ -962,7 +962,7 @@
         <v>919703</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>913182</v>
+        <v>914110</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>922333</v>
@@ -971,7 +971,7 @@
         <v>0.9971484251978163</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9900788544467769</v>
+        <v>0.9910845199223619</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -983,19 +983,19 @@
         <v>1496364</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1488158</v>
+        <v>1488351</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1500881</v>
+        <v>1501491</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9932890987367701</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9878416036793193</v>
+        <v>0.9879697334330976</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9962875292805732</v>
+        <v>0.9966923179803318</v>
       </c>
     </row>
     <row r="8">
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5982</v>
+        <v>7120</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001793966857884287</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.005549385976643403</v>
+        <v>0.006605387427409148</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6766</v>
+        <v>6788</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0009055339333696985</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.00316867051316779</v>
+        <v>0.003178886267813858</v>
       </c>
     </row>
     <row r="10">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8849</v>
+        <v>9236</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002259710176734948</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.00820936688416638</v>
+        <v>0.008568621251971694</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4954</v>
+        <v>4966</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0009346021773221486</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.004684853218626495</v>
+        <v>0.004695609511512196</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1192,19 +1192,19 @@
         <v>3424</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10125</v>
+        <v>8787</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001603471980336827</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0004540286298168082</v>
+        <v>0.0004531271222023566</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004741471265107397</v>
+        <v>0.004114715823700919</v>
       </c>
     </row>
     <row r="11">
@@ -1221,19 +1221,19 @@
         <v>2996</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8298</v>
+        <v>8031</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002779393050267694</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0008956700158524527</v>
+        <v>0.0008975301090050842</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.007698259128364865</v>
+        <v>0.007451063638555994</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9171</v>
+        <v>8724</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.00254192255215839</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.008672469616060703</v>
+        <v>0.008249641981825621</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1263,19 +1263,19 @@
         <v>5684</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1940</v>
+        <v>2000</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11851</v>
+        <v>14314</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002661789646283966</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0009085459960872297</v>
+        <v>0.0009365047248627867</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.005549627588100054</v>
+        <v>0.006703293537379646</v>
       </c>
     </row>
     <row r="12">
@@ -1292,19 +1292,19 @@
         <v>1070529</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1063392</v>
+        <v>1062160</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1074881</v>
+        <v>1074901</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.993166929915113</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9865459790746792</v>
+        <v>0.9854029242312612</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9972051487672315</v>
+        <v>0.9972237090831861</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1025</v>
@@ -1313,19 +1313,19 @@
         <v>1053861</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1047289</v>
+        <v>1046753</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1056556</v>
+        <v>1056559</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9965234752705194</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.990308195399431</v>
+        <v>0.9898018345391608</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9990709705220254</v>
+        <v>0.999074623272649</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2073</v>
@@ -1334,19 +1334,19 @@
         <v>2124390</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2115404</v>
+        <v>2115013</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2130015</v>
+        <v>2129730</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9948292044400096</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9906213056868709</v>
+        <v>0.9904380340262566</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9974633707446946</v>
+        <v>0.9973300130858623</v>
       </c>
     </row>
     <row r="13">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6885</v>
+        <v>5965</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001758008788007213</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.006138466251671488</v>
+        <v>0.005318637472922566</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5602</v>
+        <v>5083</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001023865892478526</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.005636173551999758</v>
+        <v>0.005113863744833209</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -1480,19 +1480,19 @@
         <v>2989</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8619</v>
+        <v>8036</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001413087013812137</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0004557506978902335</v>
+        <v>0.0004561475490659129</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004074208764940522</v>
+        <v>0.00379861821019621</v>
       </c>
     </row>
     <row r="15">
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8684</v>
+        <v>9506</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.002328853724960311</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.007742178809729837</v>
+        <v>0.008475781071096661</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10917</v>
+        <v>8710</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.00123469022689138</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.005160554560732128</v>
+        <v>0.004117206943948058</v>
       </c>
     </row>
     <row r="16">
@@ -1575,16 +1575,16 @@
         <v>866</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9391</v>
+        <v>8012</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00267397220606383</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0007721790657622921</v>
+        <v>0.0007725058080953992</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008373154277781443</v>
+        <v>0.007143022528831617</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         <v>2999</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>870</v>
+        <v>584</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8448</v>
+        <v>8607</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001417661965807861</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0004112178366589958</v>
+        <v>0.0002760687933171909</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.003993117096620847</v>
+        <v>0.004068295132898928</v>
       </c>
     </row>
     <row r="17">
@@ -1635,19 +1635,19 @@
         <v>1114011</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1105814</v>
+        <v>1106394</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1118609</v>
+        <v>1118534</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9932391652809687</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9859308174804374</v>
+        <v>0.9864479040965097</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9973389593683112</v>
+        <v>0.9972718496103327</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>981</v>
@@ -1656,7 +1656,7 @@
         <v>992922</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>988338</v>
+        <v>988857</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>993940</v>
@@ -1665,7 +1665,7 @@
         <v>0.9989761341075215</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9943638264480007</v>
+        <v>0.9948861362551668</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1677,19 +1677,19 @@
         <v>2106933</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2097620</v>
+        <v>2098160</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2111623</v>
+        <v>2111559</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9959345607934886</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9915322781384375</v>
+        <v>0.9917873478766399</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9981514420048451</v>
+        <v>0.9981211458368915</v>
       </c>
     </row>
     <row r="18">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4102</v>
+        <v>5104</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002982960062995433</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01202426801800947</v>
+        <v>0.01496093827459132</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4650</v>
+        <v>5146</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00129086201101945</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005898915514214674</v>
+        <v>0.006527172539039075</v>
       </c>
     </row>
     <row r="21">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9020</v>
+        <v>7673</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.003411605383113201</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02016917878678268</v>
+        <v>0.01715741429706976</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7573</v>
+        <v>8661</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.001935249115296473</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.009606104299448576</v>
+        <v>0.01098598189964754</v>
       </c>
     </row>
     <row r="22">
@@ -1954,7 +1954,7 @@
         <v>445674</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>438180</v>
+        <v>439527</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>447200</v>
@@ -1963,7 +1963,7 @@
         <v>0.9965883946168868</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9798308212132173</v>
+        <v>0.9828425857029303</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -1975,7 +1975,7 @@
         <v>340140</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>337056</v>
+        <v>336054</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>341158</v>
@@ -1984,7 +1984,7 @@
         <v>0.9970170399370045</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9879757319819905</v>
+        <v>0.9850390617254087</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1996,7 +1996,7 @@
         <v>785815</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>779051</v>
+        <v>778993</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>788358</v>
@@ -2005,7 +2005,7 @@
         <v>0.9967738888736841</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9881945559829477</v>
+        <v>0.9881213385380436</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -2100,19 +2100,19 @@
         <v>4829</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1867</v>
+        <v>1890</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10752</v>
+        <v>10986</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001494796296494371</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0005777953499803392</v>
+        <v>0.0005851226115706574</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.003327903944876562</v>
+        <v>0.003400408298762338</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5110</v>
+        <v>5821</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0003069896124223452</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.001541454853674959</v>
+        <v>0.001756021914565296</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2142,19 +2142,19 @@
         <v>5847</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2035</v>
+        <v>2064</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12612</v>
+        <v>13060</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0008932589357374342</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0003108944382308894</v>
+        <v>0.0003153534955606061</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.001926713413071177</v>
+        <v>0.001995159214658826</v>
       </c>
     </row>
     <row r="25">
@@ -2171,19 +2171,19 @@
         <v>5930</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1761</v>
+        <v>1941</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14574</v>
+        <v>13843</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001835345440466528</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0005451926587440581</v>
+        <v>0.0006007626213178007</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.004510793406074486</v>
+        <v>0.004284724374522214</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7058</v>
+        <v>7325</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0006051454118227737</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.002129185602263572</v>
+        <v>0.002209659858495396</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -2213,19 +2213,19 @@
         <v>7936</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3477</v>
+        <v>3388</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16241</v>
+        <v>15412</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001212338945927725</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0005312044480785783</v>
+        <v>0.0005175147377756628</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.002481183910569337</v>
+        <v>0.002354447098647772</v>
       </c>
     </row>
     <row r="26">
@@ -2242,19 +2242,19 @@
         <v>13194</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7281</v>
+        <v>7005</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21798</v>
+        <v>21600</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004083932243766446</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002253713932351976</v>
+        <v>0.002168165866011091</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.006746835359627237</v>
+        <v>0.006685695667507333</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2263,19 +2263,19 @@
         <v>5318</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1455</v>
+        <v>1512</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12602</v>
+        <v>12770</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.001604323154201708</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0004388340351690421</v>
+        <v>0.0004562241673145376</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.003801545213505271</v>
+        <v>0.003852186069573349</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>17</v>
@@ -2284,19 +2284,19 @@
         <v>18513</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11148</v>
+        <v>10860</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>28616</v>
+        <v>28484</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.002828191282339731</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001703104635273821</v>
+        <v>0.001659071818843693</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.004371592371831602</v>
+        <v>0.004351503874542427</v>
       </c>
     </row>
     <row r="27">
@@ -2313,19 +2313,19 @@
         <v>3206875</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3194995</v>
+        <v>3194593</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3216209</v>
+        <v>3214930</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9925859260192726</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9889087613592986</v>
+        <v>0.9887843716083404</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9954747663617273</v>
+        <v>0.9950790704400508</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3227</v>
@@ -2334,19 +2334,19 @@
         <v>3306627</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3298659</v>
+        <v>3298701</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3311532</v>
+        <v>3311695</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9974835418215532</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9950798386138314</v>
+        <v>0.9950924716199936</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.998963262892917</v>
+        <v>0.9990124804361119</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6372</v>
@@ -2355,19 +2355,19 @@
         <v>6513502</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6500906</v>
+        <v>6501000</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6524271</v>
+        <v>6524279</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9950662108359951</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9931418559044725</v>
+        <v>0.9931561685360912</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9967113205192557</v>
+        <v>0.9967125996145247</v>
       </c>
     </row>
     <row r="28">
@@ -2699,19 +2699,19 @@
         <v>6754</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2761</v>
+        <v>2838</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13230</v>
+        <v>12902</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006469891448485894</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002645165052805991</v>
+        <v>0.002718198323241643</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01267353877089532</v>
+        <v>0.01235855759672909</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2733,19 +2733,19 @@
         <v>6754</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2898</v>
+        <v>2937</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14315</v>
+        <v>14570</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003121336396406762</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001339130916761728</v>
+        <v>0.001357148491255895</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006615613766463324</v>
+        <v>0.006733310972957939</v>
       </c>
     </row>
     <row r="5">
@@ -2762,19 +2762,19 @@
         <v>5004</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>951</v>
+        <v>1693</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14579</v>
+        <v>14825</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004793007085234751</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0009106348607057833</v>
+        <v>0.001621532787939356</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01396568634164034</v>
+        <v>0.0142011127528005</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -2796,19 +2796,19 @@
         <v>5004</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>950</v>
+        <v>1762</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13592</v>
+        <v>13614</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002312339794646762</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0004388814391851851</v>
+        <v>0.0008144465207973283</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006281476130023374</v>
+        <v>0.006291408434129338</v>
       </c>
     </row>
     <row r="6">
@@ -2825,19 +2825,19 @@
         <v>14311</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7974</v>
+        <v>7840</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24877</v>
+        <v>24155</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01370918412401155</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007638023607315392</v>
+        <v>0.007510147745560405</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02382956298775426</v>
+        <v>0.02313798066532538</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -2859,19 +2859,19 @@
         <v>14311</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8344</v>
+        <v>8517</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23868</v>
+        <v>24251</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006613862954583741</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003856215605259654</v>
+        <v>0.003936108998071279</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01103043369934307</v>
+        <v>0.01120746107528472</v>
       </c>
     </row>
     <row r="7">
@@ -2888,19 +2888,19 @@
         <v>1017866</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1005840</v>
+        <v>1005449</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1026715</v>
+        <v>1027157</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9750279173422678</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9635083895284842</v>
+        <v>0.9631335434489656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9835050096043118</v>
+        <v>0.9839285161193948</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1031</v>
@@ -2922,19 +2922,19 @@
         <v>2137794</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2125378</v>
+        <v>2125174</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2146931</v>
+        <v>2146009</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9879524608543627</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9822146628414565</v>
+        <v>0.9821202907381493</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9921752429805868</v>
+        <v>0.9917488192574148</v>
       </c>
     </row>
     <row r="8">
@@ -3073,19 +3073,19 @@
         <v>3424</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8645</v>
+        <v>7977</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003504854251590457</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0009130284904407081</v>
+        <v>0.0009121203939899226</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008847514658535975</v>
+        <v>0.008164530031882203</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3107,19 +3107,19 @@
         <v>3424</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8027</v>
+        <v>8621</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00165328051775097</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.000431519460577773</v>
+        <v>0.0004351347458425027</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.003875201507521383</v>
+        <v>0.004161900963894728</v>
       </c>
     </row>
     <row r="11">
@@ -3136,19 +3136,19 @@
         <v>14188</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7632</v>
+        <v>7673</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26149</v>
+        <v>25785</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01452092182359277</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00781151654133513</v>
+        <v>0.007853449216953468</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02676228960360084</v>
+        <v>0.02639020053349161</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4988</v>
+        <v>5620</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001031472445800951</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.004558573695752441</v>
+        <v>0.005136230406606536</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -3178,19 +3178,19 @@
         <v>15317</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8672</v>
+        <v>8068</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27916</v>
+        <v>28349</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007394602622004674</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004186440730033976</v>
+        <v>0.003894896400738041</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01347746454957059</v>
+        <v>0.01368650015601533</v>
       </c>
     </row>
     <row r="12">
@@ -3207,19 +3207,19 @@
         <v>959461</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>947269</v>
+        <v>947433</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>966869</v>
+        <v>966931</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9819742239248168</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9694967320984015</v>
+        <v>0.9696647906911947</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9895560684473681</v>
+        <v>0.9896196868370917</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1019</v>
@@ -3228,7 +3228,7 @@
         <v>1093133</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1089274</v>
+        <v>1088642</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>1094262</v>
@@ -3237,7 +3237,7 @@
         <v>0.9989685275541991</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.995441426304248</v>
+        <v>0.9948637695933934</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -3249,19 +3249,19 @@
         <v>2052594</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2040273</v>
+        <v>2039311</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2060194</v>
+        <v>2060163</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9909521168602443</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9850038511962165</v>
+        <v>0.9845394387245133</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.994621242614923</v>
+        <v>0.9946065744612235</v>
       </c>
     </row>
     <row r="13">
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7918</v>
+        <v>7406</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002404042203621402</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008945791904297911</v>
+        <v>0.00836683450395481</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7850</v>
+        <v>7404</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001208382597262896</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004457754782607752</v>
+        <v>0.004204628684994965</v>
       </c>
     </row>
     <row r="15">
@@ -3416,19 +3416,19 @@
         <v>7329</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2990</v>
+        <v>2976</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16922</v>
+        <v>15441</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.008280123906242401</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003377718580037522</v>
+        <v>0.003362299577686673</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01911789157207597</v>
+        <v>0.01744508074079865</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5665</v>
+        <v>5046</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001143667538646724</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.006468318874841346</v>
+        <v>0.005761263632433456</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>7</v>
@@ -3458,19 +3458,19 @@
         <v>8330</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3935</v>
+        <v>3117</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>17540</v>
+        <v>16838</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.004730779972753836</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.002234528068807441</v>
+        <v>0.001770054317150272</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.009960665677711551</v>
+        <v>0.009561893305740895</v>
       </c>
     </row>
     <row r="16">
@@ -3487,19 +3487,19 @@
         <v>3759</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8655</v>
+        <v>8613</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004246502353014449</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001060463398346988</v>
+        <v>0.001063540712930184</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.009778754808607836</v>
+        <v>0.009731013086545094</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -3508,19 +3508,19 @@
         <v>2994</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8373</v>
+        <v>7920</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003418435362324577</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00112408506998676</v>
+        <v>0.001118745120597529</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009560460639294034</v>
+        <v>0.009043169900219236</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -3529,19 +3529,19 @@
         <v>6752</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2862</v>
+        <v>2905</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12865</v>
+        <v>13647</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003834660060630697</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001625477569187578</v>
+        <v>0.001649835308245479</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007305677335218712</v>
+        <v>0.007750071543584864</v>
       </c>
     </row>
     <row r="17">
@@ -3558,19 +3558,19 @@
         <v>871900</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>861976</v>
+        <v>862264</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>878309</v>
+        <v>877950</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9850693315371217</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9738571636444585</v>
+        <v>0.9741825580438853</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9923105542308751</v>
+        <v>0.9919053641045067</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>817</v>
@@ -3579,19 +3579,19 @@
         <v>871801</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>865722</v>
+        <v>866489</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>874794</v>
+        <v>874797</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9954378970990287</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9884969799639512</v>
+        <v>0.9893727900496352</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9988558266681385</v>
+        <v>0.9988587680191584</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1635</v>
@@ -3600,19 +3600,19 @@
         <v>1743700</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1733821</v>
+        <v>1732451</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1751033</v>
+        <v>1750877</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9902261773693526</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9846161402026901</v>
+        <v>0.9838377577785091</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9943903796014713</v>
+        <v>0.9943016517636717</v>
       </c>
     </row>
     <row r="18">
@@ -3751,19 +3751,19 @@
         <v>5427</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1761</v>
+        <v>1678</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13460</v>
+        <v>12947</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01078881408906103</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003500077049753185</v>
+        <v>0.003336631835273501</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02675806671597915</v>
+        <v>0.02573811362466933</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -3785,19 +3785,19 @@
         <v>5427</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1843</v>
+        <v>1710</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14247</v>
+        <v>12790</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00567823296894015</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00192788361371246</v>
+        <v>0.001788827706335516</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01490617111610986</v>
+        <v>0.01338245926078863</v>
       </c>
     </row>
     <row r="21">
@@ -3814,19 +3814,19 @@
         <v>3502</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9483</v>
+        <v>10055</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.006961232698474436</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001947728134854541</v>
+        <v>0.001947144345249878</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01885115880265925</v>
+        <v>0.01998926466036558</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -3848,19 +3848,19 @@
         <v>3502</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9845</v>
+        <v>9586</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.003663748460826604</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0</v>
+        <v>0.001024886111784825</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01030119173094394</v>
+        <v>0.01003018276023535</v>
       </c>
     </row>
     <row r="22">
@@ -3877,19 +3877,19 @@
         <v>494094</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>485319</v>
+        <v>485370</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>498614</v>
+        <v>498994</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9822499532124646</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9648044076733606</v>
+        <v>0.9649055807915718</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9912350390409432</v>
+        <v>0.991990346634444</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>412</v>
@@ -3911,19 +3911,19 @@
         <v>946829</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>936442</v>
+        <v>939151</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>951648</v>
+        <v>951832</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9906580185702333</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9797896842571552</v>
+        <v>0.9826247542473292</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9956993400791833</v>
+        <v>0.9958918213466513</v>
       </c>
     </row>
     <row r="23">
@@ -4015,19 +4015,19 @@
         <v>8882</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4311</v>
+        <v>4053</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16301</v>
+        <v>16618</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.002605344603698466</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.001264545929220515</v>
+        <v>0.001188957830698594</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.004781564862603404</v>
+        <v>0.004874411962925574</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -4049,19 +4049,19 @@
         <v>8882</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4231</v>
+        <v>3932</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16830</v>
+        <v>16259</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001277642125001451</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0006086590007031358</v>
+        <v>0.0005656390172598163</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.002420934955674569</v>
+        <v>0.002338859257532</v>
       </c>
     </row>
     <row r="25">
@@ -4078,19 +4078,19 @@
         <v>21184</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13482</v>
+        <v>13571</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34568</v>
+        <v>34299</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006213863744272493</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003954564173412203</v>
+        <v>0.003980838403534271</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0101396966897764</v>
+        <v>0.01006083431742582</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5990</v>
+        <v>5038</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0002827258929971409</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.001690669765551969</v>
+        <v>0.001422174359586619</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -4120,19 +4120,19 @@
         <v>22186</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13105</v>
+        <v>13249</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35386</v>
+        <v>34524</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.00319131294026247</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001885129134969797</v>
+        <v>0.001905857680635345</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.005090200031139014</v>
+        <v>0.004966115748663597</v>
       </c>
     </row>
     <row r="26">
@@ -4149,19 +4149,19 @@
         <v>35760</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24518</v>
+        <v>24654</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49821</v>
+        <v>51245</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01048937195694073</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007191789185894467</v>
+        <v>0.007231654523621059</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01461381595134066</v>
+        <v>0.01503163091902526</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -4170,19 +4170,19 @@
         <v>4123</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1128</v>
+        <v>1005</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10680</v>
+        <v>10190</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.001163668172560876</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0003183422230523717</v>
+        <v>0.0002836405740588799</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.003014541547421667</v>
+        <v>0.002876420646811104</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>37</v>
@@ -4191,19 +4191,19 @@
         <v>39882</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>27811</v>
+        <v>27644</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>54579</v>
+        <v>56851</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005736925769001327</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00400047226020858</v>
+        <v>0.003976483235024309</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.007850992269191937</v>
+        <v>0.008177798912634825</v>
       </c>
     </row>
     <row r="27">
@@ -4220,19 +4220,19 @@
         <v>3343319</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3323600</v>
+        <v>3324536</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3358927</v>
+        <v>3359314</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9806914196950883</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.974907306552501</v>
+        <v>0.9751817670949892</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9852696989473472</v>
+        <v>0.9853831067035423</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3279</v>
@@ -4241,19 +4241,19 @@
         <v>3537598</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3531195</v>
+        <v>3530341</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3540727</v>
+        <v>3540731</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.998553605934442</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9967461706801605</v>
+        <v>0.9965051884150948</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9994368523550197</v>
+        <v>0.9994381248122184</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6411</v>
@@ -4262,19 +4262,19 @@
         <v>6880917</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6862174</v>
+        <v>6860423</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6897124</v>
+        <v>6896481</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9897941191657348</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9870979576312984</v>
+        <v>0.9868461862835994</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9921254158000169</v>
+        <v>0.9920329708939025</v>
       </c>
     </row>
     <row r="28">
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6532</v>
+        <v>7259</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001900146402305622</v>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.005790391007886985</v>
+        <v>0.006435446332734598</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5506</v>
+        <v>7098</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0008764622984712231</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.004371461412665416</v>
+        <v>0.005635583464900679</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -4648,19 +4648,19 @@
         <v>3247</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1046</v>
+        <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8725</v>
+        <v>8685</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00136009990377465</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0004380271031744713</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003654303881270943</v>
+        <v>0.003637570403144156</v>
       </c>
     </row>
     <row r="5">
@@ -4677,19 +4677,19 @@
         <v>6391</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2862</v>
+        <v>2829</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14224</v>
+        <v>13637</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005666041266486104</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002537638211400629</v>
+        <v>0.002508367530105931</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01260958286461364</v>
+        <v>0.0120893624751547</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -4711,19 +4711,19 @@
         <v>6391</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2842</v>
+        <v>2222</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14394</v>
+        <v>13280</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002676910405670451</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001190222731282967</v>
+        <v>0.0009307095706670343</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006028693649790929</v>
+        <v>0.005562200779276784</v>
       </c>
     </row>
     <row r="6">
@@ -4740,19 +4740,19 @@
         <v>16072</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8882</v>
+        <v>9830</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26257</v>
+        <v>28064</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01424868890829029</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007873733111766781</v>
+        <v>0.008714197298173592</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02327757581006215</v>
+        <v>0.02487959741149835</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7525</v>
+        <v>7517</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00169021362363791</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.005974570597288873</v>
+        <v>0.005967699711465942</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -4782,19 +4782,19 @@
         <v>18201</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9937</v>
+        <v>10503</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29087</v>
+        <v>28310</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.007623441354908897</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004161836353474167</v>
+        <v>0.004399055555212808</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01218288315825683</v>
+        <v>0.01185715608738301</v>
       </c>
     </row>
     <row r="7">
@@ -4811,19 +4811,19 @@
         <v>1103390</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1090655</v>
+        <v>1090173</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1111924</v>
+        <v>1112280</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.978185123422918</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9668957380981155</v>
+        <v>0.9664677282753632</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9857506122327118</v>
+        <v>0.9860666654974046</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1185</v>
@@ -4832,19 +4832,19 @@
         <v>1256328</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1251100</v>
+        <v>1250450</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1259561</v>
+        <v>1258556</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9974333240778909</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9932826655366178</v>
+        <v>0.9927663579926989</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>1</v>
+        <v>0.9992018932483351</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2229</v>
@@ -4853,19 +4853,19 @@
         <v>2359718</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2345698</v>
+        <v>2347388</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2369512</v>
+        <v>2369271</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.988339548335646</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9824676203219382</v>
+        <v>0.9831754567650619</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9924418374256764</v>
+        <v>0.9923406515077735</v>
       </c>
     </row>
     <row r="8">
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5873</v>
+        <v>6192</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001179441839452306</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006462604811464798</v>
+        <v>0.006813548887959176</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5179</v>
+        <v>3968</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0009351234159785905</v>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.005145986693897427</v>
+        <v>0.00394216175390188</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6987</v>
+        <v>6340</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001051054407695439</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.003647836114515257</v>
+        <v>0.003310325361283625</v>
       </c>
     </row>
     <row r="11">
@@ -5075,19 +5075,19 @@
         <v>4159</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10924</v>
+        <v>11564</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004575693911309443</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001120290543681475</v>
+        <v>0.001116728951179963</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01201992996543639</v>
+        <v>0.01272413917329677</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -5096,19 +5096,19 @@
         <v>4859</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1744</v>
+        <v>1754</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11095</v>
+        <v>11325</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004827522965325721</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001733038777787565</v>
+        <v>0.001742886008587172</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0110238319026406</v>
+        <v>0.01125169585547502</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -5117,19 +5117,19 @@
         <v>9017</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4121</v>
+        <v>4456</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16535</v>
+        <v>17182</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004708028121015039</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002151724526388864</v>
+        <v>0.002326406612741155</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.008632891852697902</v>
+        <v>0.008970912500348337</v>
       </c>
     </row>
     <row r="12">
@@ -5146,19 +5146,19 @@
         <v>903595</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>896793</v>
+        <v>895199</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>906823</v>
+        <v>906803</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9942448642492383</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9867611932310951</v>
+        <v>0.9850069962229652</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9977968772467557</v>
+        <v>0.9977751000510576</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>945</v>
@@ -5167,19 +5167,19 @@
         <v>1000675</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>994605</v>
+        <v>993845</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1004609</v>
+        <v>1004428</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9942373536186957</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9882062871456919</v>
+        <v>0.987451359970953</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9981455207863859</v>
+        <v>0.9979663898906128</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1821</v>
@@ -5188,19 +5188,19 @@
         <v>1904270</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1895645</v>
+        <v>1896354</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1909696</v>
+        <v>1909537</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9942409174712895</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9897378723259296</v>
+        <v>0.9901081261678483</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9970742360870843</v>
+        <v>0.9969910194913714</v>
       </c>
     </row>
     <row r="13">
@@ -5339,19 +5339,19 @@
         <v>4415</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1348</v>
+        <v>1095</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11547</v>
+        <v>10884</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.005359029118299037</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001635860528481673</v>
+        <v>0.001329763314861274</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01401726134473258</v>
+        <v>0.01321230860622085</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -5373,19 +5373,19 @@
         <v>4415</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1059</v>
+        <v>1098</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10850</v>
+        <v>10401</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.002768058842671225</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0006642916459552482</v>
+        <v>0.0006886569062219756</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.006803176209016676</v>
+        <v>0.006521587160994335</v>
       </c>
     </row>
     <row r="16">
@@ -5402,19 +5402,19 @@
         <v>3085</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8519</v>
+        <v>9230</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003745040579554065</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001164729519539379</v>
+        <v>0.00116768626471326</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01034215836825299</v>
+        <v>0.01120418807714695</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5423,19 +5423,19 @@
         <v>3874</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11522</v>
+        <v>11210</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005024787998339441</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001225508739690237</v>
+        <v>0.00121242552509047</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01494363473216917</v>
+        <v>0.01453826569992817</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -5444,19 +5444,19 @@
         <v>6959</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2887</v>
+        <v>2903</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15804</v>
+        <v>15875</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004363769727910841</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001809999261569002</v>
+        <v>0.001820483115421141</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009909651903360619</v>
+        <v>0.009954118206960702</v>
       </c>
     </row>
     <row r="17">
@@ -5473,19 +5473,19 @@
         <v>816259</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>808156</v>
+        <v>808736</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>820613</v>
+        <v>820681</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9908959303021468</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9810582428652781</v>
+        <v>0.981762544063943</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9961812511576484</v>
+        <v>0.9962632904263501</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>725</v>
@@ -5494,19 +5494,19 @@
         <v>767185</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>759537</v>
+        <v>759849</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>770114</v>
+        <v>770124</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9949752120016606</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9850563652678308</v>
+        <v>0.9854617343000718</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9987744912603098</v>
+        <v>0.9987875744749095</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1505</v>
@@ -5515,19 +5515,19 @@
         <v>1583444</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1575812</v>
+        <v>1573225</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1589568</v>
+        <v>1588747</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.992868171429418</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9880824317416518</v>
+        <v>0.9864606344357962</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9967080038938901</v>
+        <v>0.9961935895623587</v>
       </c>
     </row>
     <row r="18">
@@ -5635,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5584</v>
+        <v>4598</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00188336626952426</v>
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01140393366190175</v>
+        <v>0.00938854696681018</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4636</v>
+        <v>5310</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0009256134918243759</v>
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004652701679588609</v>
+        <v>0.005329209216149485</v>
       </c>
     </row>
     <row r="20">
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4915</v>
+        <v>6302</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001940589898636744</v>
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009699596178163886</v>
+        <v>0.01243710537019256</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3970</v>
+        <v>6625</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0009868528474098479</v>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.003984004802367379</v>
+        <v>0.006648586451319741</v>
       </c>
     </row>
     <row r="21">
@@ -5745,19 +5745,19 @@
         <v>10460</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5116</v>
+        <v>5252</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19868</v>
+        <v>19680</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02064285837330643</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01009676722812448</v>
+        <v>0.01036495631469692</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03921114113361426</v>
+        <v>0.03883849008561292</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -5766,19 +5766,19 @@
         <v>3058</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8119</v>
+        <v>8393</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.006245641264737507</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001913058159483755</v>
+        <v>0.001929335515898769</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01658006587808087</v>
+        <v>0.01713920852883466</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>12</v>
@@ -5787,19 +5787,19 @@
         <v>13518</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7182</v>
+        <v>7555</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>23442</v>
+        <v>22237</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01356709269986557</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.007207532175072405</v>
+        <v>0.007582150198966752</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02352709019388624</v>
+        <v>0.02231710678258201</v>
       </c>
     </row>
     <row r="22">
@@ -5816,19 +5816,19 @@
         <v>495258</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>485349</v>
+        <v>486320</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>501331</v>
+        <v>500568</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9774165517280569</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9578608727093995</v>
+        <v>0.9597780526708097</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9894013759220653</v>
+        <v>0.9878955360216591</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>451</v>
@@ -5837,19 +5837,19 @@
         <v>485717</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>479827</v>
+        <v>479693</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>488751</v>
+        <v>488586</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9918709924657383</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9798422949249274</v>
+        <v>0.9795685047722873</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9980652137216275</v>
+        <v>0.9977283448848637</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>912</v>
@@ -5858,19 +5858,19 @@
         <v>980974</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>970495</v>
+        <v>971678</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>988004</v>
+        <v>987296</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9845204409609002</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9740035128275781</v>
+        <v>0.9751905043389699</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9915758139114095</v>
+        <v>0.990865140949575</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7546</v>
+        <v>7530</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0006365251445020568</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.00224083319277232</v>
+        <v>0.002236087352651571</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7192</v>
+        <v>6772</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0005745269700328153</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.002039269379319364</v>
+        <v>0.001920195220127185</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -6007,16 +6007,16 @@
         <v>1093</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10550</v>
+        <v>10384</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.000604808822839862</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0001585642808348492</v>
+        <v>0.0001584936228788309</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.001530364812354744</v>
+        <v>0.001506239418106591</v>
       </c>
     </row>
     <row r="25">
@@ -6033,19 +6033,19 @@
         <v>12861</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7064</v>
+        <v>6615</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23072</v>
+        <v>21642</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003819410666106158</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00209783059005201</v>
+        <v>0.001964512254300162</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.006851748511336109</v>
+        <v>0.006427140099003992</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4731</v>
+        <v>5630</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0002668653372676885</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.001341399612823473</v>
+        <v>0.001596466756785237</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -6075,19 +6075,19 @@
         <v>13802</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8015</v>
+        <v>7335</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23226</v>
+        <v>23429</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002002039891344587</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001162604613111861</v>
+        <v>0.001063950963311813</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.003368981439719539</v>
+        <v>0.003398474960519449</v>
       </c>
     </row>
     <row r="26">
@@ -6104,19 +6104,19 @@
         <v>33776</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24202</v>
+        <v>22371</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>47410</v>
+        <v>47867</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01003056758862317</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007187284061166608</v>
+        <v>0.006643583438941313</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01407949723997577</v>
+        <v>0.01421528555608785</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -6125,19 +6125,19 @@
         <v>13921</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7796</v>
+        <v>7372</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23926</v>
+        <v>23141</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.003947096964692079</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002210631090173005</v>
+        <v>0.002090270125432702</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.006784005501243676</v>
+        <v>0.006561419092006952</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>43</v>
@@ -6146,19 +6146,19 @@
         <v>47696</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>34286</v>
+        <v>34713</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>64245</v>
+        <v>64384</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006918454808160008</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00497321527908734</v>
+        <v>0.005035194253580709</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.009318833070094285</v>
+        <v>0.009339007391932917</v>
       </c>
     </row>
     <row r="27">
@@ -6175,19 +6175,19 @@
         <v>3318502</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3303317</v>
+        <v>3302553</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3331189</v>
+        <v>3332486</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9855134966007686</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9810038247218736</v>
+        <v>0.980776960104329</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9892813194459634</v>
+        <v>0.9896665503880472</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3306</v>
@@ -6196,19 +6196,19 @@
         <v>3509904</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3499015</v>
+        <v>3499714</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3516662</v>
+        <v>3517198</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9952115107280074</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9921238910915784</v>
+        <v>0.9923223187772244</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9971277481219774</v>
+        <v>0.9972796365105988</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6467</v>
@@ -6217,19 +6217,19 @@
         <v>6828407</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6808536</v>
+        <v>6810028</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6843414</v>
+        <v>6844631</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9904746964776555</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9875924140849781</v>
+        <v>0.9878087930339383</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.992651573194269</v>
+        <v>0.9928280613542141</v>
       </c>
     </row>
     <row r="28">
@@ -6561,19 +6561,19 @@
         <v>4836</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2005</v>
+        <v>1919</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10591</v>
+        <v>10113</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02259958364778327</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009371807242566581</v>
+        <v>0.008966592154697754</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04949764830353472</v>
+        <v>0.04726496367603933</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -6582,19 +6582,19 @@
         <v>1579</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4490</v>
+        <v>5111</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01358409702935269</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0036470032334799</v>
+        <v>0.003716240319541795</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03863177673012693</v>
+        <v>0.04398209016071393</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -6603,19 +6603,19 @@
         <v>6414</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3302</v>
+        <v>2944</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12505</v>
+        <v>12621</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01942641457072447</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01000186162295971</v>
+        <v>0.008915106136769534</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03787323644149961</v>
+        <v>0.03822337134356431</v>
       </c>
     </row>
     <row r="5">
@@ -6635,16 +6635,16 @@
         <v>549</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6043</v>
+        <v>5925</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009755493583950241</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002565099679683286</v>
+        <v>0.002563692820409561</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02824318463650242</v>
+        <v>0.02769098730499305</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -6666,19 +6666,19 @@
         <v>2087</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7188</v>
+        <v>7333</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.006321865219536425</v>
+        <v>0.006321865219536424</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001665466893696422</v>
+        <v>0.001706504452756875</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02176863989993772</v>
+        <v>0.02220886144703321</v>
       </c>
     </row>
     <row r="6">
@@ -6695,19 +6695,19 @@
         <v>2814</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7818</v>
+        <v>8435</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01315073788287338</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003792378181323183</v>
+        <v>0.003802371030368945</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03653984844012104</v>
+        <v>0.03942035679715226</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -6719,16 +6719,16 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4105</v>
+        <v>3152</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.005929618625177325</v>
+        <v>0.005929618625177324</v>
       </c>
       <c r="O6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03532004473824274</v>
+        <v>0.02712063390793214</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -6737,19 +6737,19 @@
         <v>3503</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>859</v>
+        <v>879</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9302</v>
+        <v>8798</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01060912994754223</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002601379707898889</v>
+        <v>0.0026612238482821</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02817258687748951</v>
+        <v>0.0266466554678795</v>
       </c>
     </row>
     <row r="7">
@@ -6766,19 +6766,19 @@
         <v>204233</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>196749</v>
+        <v>197387</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>208703</v>
+        <v>208763</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9544941848853932</v>
+        <v>0.9544941848853931</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9195179786954989</v>
+        <v>0.9225001270701003</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9753844680614105</v>
+        <v>0.9756665392800205</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>147</v>
@@ -6787,19 +6787,19 @@
         <v>113947</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110675</v>
+        <v>110270</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115554</v>
+        <v>115532</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.98048628434547</v>
+        <v>0.9804862843454699</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9523329537657546</v>
+        <v>0.9488427077331221</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9943082483229878</v>
+        <v>0.9941214489448682</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>335</v>
@@ -6808,19 +6808,19 @@
         <v>318180</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>310521</v>
+        <v>310840</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>322996</v>
+        <v>323152</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.963642590262197</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9404454307379136</v>
+        <v>0.9414131318512029</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9782265638659905</v>
+        <v>0.9787012118594632</v>
       </c>
     </row>
     <row r="8">
@@ -6912,19 +6912,19 @@
         <v>2509</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6825</v>
+        <v>7508</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.005524673641324171</v>
+        <v>0.005524673641324172</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001715245648992835</v>
+        <v>0.00170564932783967</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01502847101272102</v>
+        <v>0.01653259413915877</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3565</v>
+        <v>3264</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004295979858259418</v>
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01492404015755847</v>
+        <v>0.01366536990993328</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -6954,19 +6954,19 @@
         <v>3535</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1026</v>
+        <v>1271</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7977</v>
+        <v>8175</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.005101151677689389</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.001481211980955086</v>
+        <v>0.001833593595776302</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01151116985424393</v>
+        <v>0.01179697858444128</v>
       </c>
     </row>
     <row r="10">
@@ -6983,19 +6983,19 @@
         <v>4010</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>900</v>
+        <v>1132</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9893</v>
+        <v>9409</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008831235080282171</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001981299931452349</v>
+        <v>0.002492555598981489</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02178458986260056</v>
+        <v>0.02071965968620191</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3654</v>
+        <v>4247</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002999088721926701</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01529910952204153</v>
+        <v>0.01777970527501829</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -7025,19 +7025,19 @@
         <v>4727</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1643</v>
+        <v>1739</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10532</v>
+        <v>10101</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006820935921988164</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002370518715126867</v>
+        <v>0.002509498202976631</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01519835499976353</v>
+        <v>0.01457547360206517</v>
       </c>
     </row>
     <row r="11">
@@ -7057,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8376</v>
+        <v>8840</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00380664417765715</v>
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01844451874527659</v>
+        <v>0.01946600378266625</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4018</v>
+        <v>4631</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003165397154457112</v>
@@ -7087,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01682162072010753</v>
+        <v>0.01938691863186543</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -7099,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10604</v>
+        <v>10097</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003585610912751042</v>
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01530203553116354</v>
+        <v>0.01456986444538391</v>
       </c>
     </row>
     <row r="12">
@@ -7125,19 +7125,19 @@
         <v>445868</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>437494</v>
+        <v>438518</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>450356</v>
+        <v>450472</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9818374471007366</v>
+        <v>0.9818374471007367</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9633963050418509</v>
+        <v>0.9656509268591571</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9917197094495837</v>
+        <v>0.9919750155672343</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>306</v>
@@ -7146,19 +7146,19 @@
         <v>236367</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>232366</v>
+        <v>232522</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>238297</v>
+        <v>238261</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9895395342653568</v>
+        <v>0.9895395342653569</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9727886027113777</v>
+        <v>0.9734422732083368</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9976191985807518</v>
+        <v>0.9974677628152784</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>724</v>
@@ -7167,19 +7167,19 @@
         <v>682235</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>673202</v>
+        <v>674294</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>687350</v>
+        <v>687780</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9844923014875715</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9714573841749132</v>
+        <v>0.9730322159010457</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9918723744041452</v>
+        <v>0.9924927564093524</v>
       </c>
     </row>
     <row r="13">
@@ -7271,19 +7271,19 @@
         <v>2814</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6688</v>
+        <v>6846</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005578169341425718</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001401035609903879</v>
+        <v>0.001396828719635299</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01325809469808734</v>
+        <v>0.01357178129071454</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -7292,19 +7292,19 @@
         <v>4511</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1443</v>
+        <v>867</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16037</v>
+        <v>12254</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01701790966665273</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005444340707423619</v>
+        <v>0.00326929922941268</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06049625694784967</v>
+        <v>0.04622504833080768</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -7313,19 +7313,19 @@
         <v>7325</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2954</v>
+        <v>3282</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15198</v>
+        <v>16826</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.009518919056796801</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00383874323584356</v>
+        <v>0.004265244582773636</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01974985091882069</v>
+        <v>0.02186486238406477</v>
       </c>
     </row>
     <row r="15">
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7437</v>
+        <v>6800</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.004282422363605638</v>
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01474340888716318</v>
+        <v>0.01348030864938165</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -7366,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3025</v>
+        <v>3612</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.002673629829524954</v>
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01141251094647147</v>
+        <v>0.01362718416098129</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -7384,19 +7384,19 @@
         <v>2869</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7869</v>
+        <v>9048</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.003728227203529418</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0</v>
+        <v>0.0009234673402079872</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01022625134776733</v>
+        <v>0.01175728601525005</v>
       </c>
     </row>
     <row r="16">
@@ -7413,19 +7413,19 @@
         <v>5564</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1452</v>
+        <v>1794</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15141</v>
+        <v>16231</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01103005912114486</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002877788738351005</v>
+        <v>0.003556755095147488</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03001600198838731</v>
+        <v>0.03217554742657731</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -7447,19 +7447,19 @@
         <v>5564</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1477</v>
+        <v>1309</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15385</v>
+        <v>15082</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007230435956069632</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001919369790887444</v>
+        <v>0.001700745057075506</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01999229220985606</v>
+        <v>0.01959903237806454</v>
       </c>
     </row>
     <row r="17">
@@ -7476,19 +7476,19 @@
         <v>493906</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>484022</v>
+        <v>483682</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>499365</v>
+        <v>499069</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9791093491738238</v>
+        <v>0.9791093491738239</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9595166831296238</v>
+        <v>0.9588425721469773</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9899322637409754</v>
+        <v>0.9893439192071759</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>361</v>
@@ -7497,19 +7497,19 @@
         <v>259868</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>249843</v>
+        <v>252158</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>263294</v>
+        <v>263638</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9803084605038224</v>
+        <v>0.9803084605038223</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9424893480371604</v>
+        <v>0.9512229390454996</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9932322630456576</v>
+        <v>0.9945309866641613</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>847</v>
@@ -7518,19 +7518,19 @@
         <v>753774</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>742978</v>
+        <v>741351</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>761037</v>
+        <v>761167</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9795224177836042</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9654935670093896</v>
+        <v>0.9633789552506539</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9889611725736172</v>
+        <v>0.9891297667940209</v>
       </c>
     </row>
     <row r="18">
@@ -7622,19 +7622,19 @@
         <v>2531</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8838</v>
+        <v>7882</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005237659599558244</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001148659286104081</v>
+        <v>0.001151828283710612</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01828601087435779</v>
+        <v>0.01630865951921039</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -7643,19 +7643,19 @@
         <v>4502</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14090</v>
+        <v>13473</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01678251186399888</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002093594270313595</v>
+        <v>0.00209954387961998</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05252654026997569</v>
+        <v>0.0502268149227127</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -7664,19 +7664,19 @@
         <v>7033</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2764</v>
+        <v>2643</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17900</v>
+        <v>16167</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.009358202322879717</v>
+        <v>0.009358202322879716</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003677948198575242</v>
+        <v>0.003516566199273679</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02381689413205375</v>
+        <v>0.02151096810112782</v>
       </c>
     </row>
     <row r="20">
@@ -7693,19 +7693,19 @@
         <v>3136</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8696</v>
+        <v>9010</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0064887174472951</v>
+        <v>0.006488717447295099</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001808729071407542</v>
+        <v>0.001783813685991759</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01799271545210213</v>
+        <v>0.01864253191652781</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -7717,16 +7717,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5109</v>
+        <v>4905</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.005647213132064572</v>
+        <v>0.005647213132064571</v>
       </c>
       <c r="O20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01904661962557531</v>
+        <v>0.01828710490721218</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -7735,19 +7735,19 @@
         <v>4651</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1587</v>
+        <v>1476</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10705</v>
+        <v>10226</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00618837107617289</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002110986877910024</v>
+        <v>0.001963744795962681</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01424311771803331</v>
+        <v>0.01360594469983911</v>
       </c>
     </row>
     <row r="21">
@@ -7764,19 +7764,19 @@
         <v>5368</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1879</v>
+        <v>2091</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11173</v>
+        <v>11751</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0111061100767918</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.003888055259568382</v>
+        <v>0.004326207193894899</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0231175025549235</v>
+        <v>0.02431273261841727</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -7788,16 +7788,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3249</v>
+        <v>3175</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.002399707623636123</v>
+        <v>0.002399707623636122</v>
       </c>
       <c r="O21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01211236556992124</v>
+        <v>0.01183476502283688</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -7806,19 +7806,19 @@
         <v>6011</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2507</v>
+        <v>2529</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>12220</v>
+        <v>12243</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.007998655563479581</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.003335386834075366</v>
+        <v>0.003365296627567264</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01625975978832267</v>
+        <v>0.01629069048171349</v>
       </c>
     </row>
     <row r="22">
@@ -7835,19 +7835,19 @@
         <v>472279</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>464649</v>
+        <v>464115</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>478101</v>
+        <v>477263</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9771675128763547</v>
+        <v>0.9771675128763548</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9613806818054145</v>
+        <v>0.9602760097743391</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9892136747623771</v>
+        <v>0.9874808963988266</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>352</v>
@@ -7856,19 +7856,19 @@
         <v>261582</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>251793</v>
+        <v>252796</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>265909</v>
+        <v>265754</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9751705673803005</v>
+        <v>0.9751705673803004</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9386793869697848</v>
+        <v>0.9424173417416684</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9913043502716115</v>
+        <v>0.9907246755482735</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>789</v>
@@ -7877,19 +7877,19 @@
         <v>733860</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>723122</v>
+        <v>723031</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>740988</v>
+        <v>740971</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9764547710374678</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9621659320476488</v>
+        <v>0.9620448093100635</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9859388811397715</v>
+        <v>0.9859156264372869</v>
       </c>
     </row>
     <row r="23">
@@ -7981,19 +7981,19 @@
         <v>12690</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7567</v>
+        <v>7590</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20607</v>
+        <v>20469</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.007663634108786153</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004569774717911573</v>
+        <v>0.004584055360304241</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01244525197861291</v>
+        <v>0.01236150382222786</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -8002,19 +8002,19 @@
         <v>11618</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6003</v>
+        <v>5748</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23276</v>
+        <v>22185</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01307712012642668</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.006757330693454358</v>
+        <v>0.006469556233894985</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02619989086539637</v>
+        <v>0.02497183644799228</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>28</v>
@@ -8023,19 +8023,19 @@
         <v>24308</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>16351</v>
+        <v>16065</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>36342</v>
+        <v>35765</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.009553931572818154</v>
+        <v>0.009553931572818156</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006426666080597269</v>
+        <v>0.006314202223769799</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01428412227705939</v>
+        <v>0.01405696910134392</v>
       </c>
     </row>
     <row r="25">
@@ -8052,19 +8052,19 @@
         <v>11394</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6052</v>
+        <v>5878</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21009</v>
+        <v>19520</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006881154020014632</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003654943256197548</v>
+        <v>0.003549980933624604</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0126879104338385</v>
+        <v>0.0117884505137654</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -8073,19 +8073,19 @@
         <v>2940</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7021</v>
+        <v>7385</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003309222641425084</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0008042304936455889</v>
+        <v>0.0008052558631145838</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.007902566848318054</v>
+        <v>0.008312685739075492</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -8094,19 +8094,19 @@
         <v>14334</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8318</v>
+        <v>8275</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23345</v>
+        <v>22687</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.00563389618935951</v>
+        <v>0.005633896189359512</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003269203407574218</v>
+        <v>0.003252327385495175</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009175386385242575</v>
+        <v>0.008916987746925367</v>
       </c>
     </row>
     <row r="26">
@@ -8123,19 +8123,19 @@
         <v>15474</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8510</v>
+        <v>7888</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26015</v>
+        <v>26442</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.009345268179048686</v>
+        <v>0.009345268179048684</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005139301338475366</v>
+        <v>0.00476365473440802</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01571119186620909</v>
+        <v>0.01596870330076759</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -8144,19 +8144,19 @@
         <v>2089</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5736</v>
+        <v>6156</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.002351297462309483</v>
+        <v>0.002351297462309484</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.000722983402496425</v>
+        <v>0.0007140177720324761</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.006456492451495731</v>
+        <v>0.006929010732839014</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>17</v>
@@ -8165,19 +8165,19 @@
         <v>17563</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10671</v>
+        <v>11052</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>29259</v>
+        <v>28039</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.006903092274966745</v>
+        <v>0.006903092274966746</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00419414087395751</v>
+        <v>0.004343852850605278</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01150000741643666</v>
+        <v>0.01102057818645575</v>
       </c>
     </row>
     <row r="27">
@@ -8194,19 +8194,19 @@
         <v>1616286</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1601019</v>
+        <v>1602207</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1627735</v>
+        <v>1627334</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9761099436921507</v>
+        <v>0.9761099436921504</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9668900201078928</v>
+        <v>0.9676076680161726</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9830242625454692</v>
+        <v>0.9827824395323512</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1166</v>
@@ -8215,19 +8215,19 @@
         <v>871764</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>860611</v>
+        <v>860741</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>878401</v>
+        <v>878509</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.9812623597698387</v>
+        <v>0.9812623597698389</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9687077699489359</v>
+        <v>0.9688542533924703</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9887322553218728</v>
+        <v>0.9888546238231576</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2695</v>
@@ -8236,19 +8236,19 @@
         <v>2488050</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2469703</v>
+        <v>2471473</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2500667</v>
+        <v>2501247</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.9779090799628556</v>
+        <v>0.9779090799628558</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9706980113347639</v>
+        <v>0.9713935276629441</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9828679803371825</v>
+        <v>0.9830959761845587</v>
       </c>
     </row>
     <row r="28">
